--- a/轻松考数据库表初始.xlsx
+++ b/轻松考数据库表初始.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘增璐\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Product\Product\轻松考\EasyExamination\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -305,10 +305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>majorid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>majorName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,13 +442,17 @@
   </si>
   <si>
     <t>一对多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>majorId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -871,21 +871,21 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.875" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
-    <col min="8" max="8" width="28.625" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,11 +895,11 @@
       </c>
       <c r="E1" s="2"/>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>31</v>
       </c>
@@ -919,7 +919,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -933,13 +933,13 @@
         <v>41</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -949,13 +949,13 @@
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -975,23 +975,23 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
@@ -1001,7 +1001,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="5" t="s">
         <v>38</v>
       </c>
@@ -1009,8 +1009,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>44</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>54</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>69</v>
@@ -1088,14 +1088,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="D14" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>17</v>
@@ -1104,7 +1104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>34</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H18" s="7" t="s">
         <v>27</v>
       </c>
@@ -1148,15 +1148,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H19" s="3" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -1167,13 +1167,13 @@
         <v>60</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -1184,13 +1184,13 @@
         <v>60</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1201,91 +1201,91 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
         <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
       </c>
       <c r="C23" t="s">
         <v>60</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="3" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>97</v>
       </c>
-      <c r="C25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" t="s">
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="B27" t="s">
         <v>101</v>
       </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
       <c r="C27" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" s="10"/>
     </row>
